--- a/jpcore-r4/feature/swg5-fix_doseAndRate_coding/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
+++ b/jpcore-r4/feature/swg5-fix_doseAndRate_coding/StructureDefinition-jp-immunization-duedateofnextdose.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T07:49:21+00:00</t>
+    <t>2022-08-26T08:55:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
